--- a/test/hfspecial.xlsx
+++ b/test/hfspecial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linlian/Desktop/研发/Y chromosome/yleaf/项目测试/20180830/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linlian/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="276">
   <si>
     <t>A000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -947,6 +947,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1611,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
